--- a/experiment_result/before/flir_dataset_val_RGB_yolox_val_iou_sunny.xlsx
+++ b/experiment_result/before/flir_dataset_val_RGB_yolox_val_iou_sunny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\tanimoto.j\workspace\GitHub\YOLOX\experiment_result\before\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C6FE31-D99C-4271-A448-D1E9D12AE12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD304438-D0C1-41FF-B162-DE3E52A3FEE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="21570" windowHeight="7890"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20880" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="flir_dataset_val_RGB_yolox_val_" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6618" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6619" uniqueCount="768">
   <si>
     <t>path</t>
   </si>
@@ -2328,6 +2328,10 @@
   <si>
     <t>\\aka\work\tanimoto.j\dataset\flir\FLIR_ADAS_1_3\val\RGB\FLIR_10227.jpg</t>
   </si>
+  <si>
+    <t>count 0</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -2994,7 +2998,7 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{A5433C94-CC4A-44A5-821B-527AA9789937}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{20464C21-2DF0-4743-AFA9-28B818BA2163}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.0</cx:f>
@@ -3014,7 +3018,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="2000"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -3576,15 +3580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>204786</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3593,7 +3597,7 @@
             <xdr:cNvPr id="2" name="グラフ 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA08492-2425-4576-9A80-2FB6C28E9949}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1BEDF0E-0D2F-4DA8-9733-A121987F1EB9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3620,8 +3624,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2443162" y="47625"/>
-              <a:ext cx="10453688" cy="6877050"/>
+              <a:off x="2262186" y="323850"/>
+              <a:ext cx="9015414" cy="5981700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3951,15 +3955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6616"/>
+  <dimension ref="A1:E6616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3969,8 +3973,15 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E1">
+        <f>COUNTIF(C:C,"=0")</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3981,7 +3992,7 @@
         <v>0.675662239897734</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>0.66477213473772001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4003,7 +4014,7 @@
         <v>0.781190019193858</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4014,7 +4025,7 @@
         <v>0.66133392177414896</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4025,7 +4036,7 @@
         <v>0.86635561100949199</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4047,7 @@
         <v>0.73723647447294804</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4047,7 +4058,7 @@
         <v>0.59552808580258099</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>0.82936093775515196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4080,7 @@
         <v>0.68864519711271499</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>0.50564759036144502</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4091,7 +4102,7 @@
         <v>0.81126997476871299</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4102,7 +4113,7 @@
         <v>0.416901408450704</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>0.58822697842743599</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4135,7 @@
         <v>0.55307971014492696</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -76738,6 +76749,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>